--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15315" windowHeight="9015"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15315" windowHeight="9015" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="стены+фундамент" sheetId="1" r:id="rId1"/>
+    <sheet name="балки+стропила" sheetId="2" r:id="rId2"/>
+    <sheet name="металлочерепица" sheetId="3" r:id="rId3"/>
+    <sheet name="общая" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>1й этаж</t>
   </si>
@@ -133,16 +134,25 @@
   </si>
   <si>
     <t>кубов</t>
+  </si>
+  <si>
+    <t>стены+фундамент</t>
+  </si>
+  <si>
+    <t>балки+стропила</t>
+  </si>
+  <si>
+    <t>металлочерепица</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +199,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -267,6 +282,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -476,19 +493,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -517,7 +534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -528,7 +545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -539,7 +556,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -554,7 +571,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -581,7 +598,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5.3</v>
       </c>
@@ -605,7 +622,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -632,7 +649,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -659,7 +676,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -686,7 +703,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1.2</v>
       </c>
@@ -710,7 +727,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -734,7 +751,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -761,19 +778,19 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -788,7 +805,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -803,7 +820,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>8.1199999999999992</v>
       </c>
@@ -811,7 +828,7 @@
         <v>1.8</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D16:D24" si="4">B18*C18</f>
+        <f t="shared" ref="D18:D20" si="4">B18*C18</f>
         <v>14.616</v>
       </c>
       <c r="E18" s="1">
@@ -827,7 +844,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>5.3</v>
       </c>
@@ -842,7 +859,7 @@
         <v>0.2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:F21" si="5">E19*D19</f>
+        <f t="shared" ref="F19:F20" si="5">E19*D19</f>
         <v>1.9079999999999999</v>
       </c>
       <c r="G19" s="1"/>
@@ -851,7 +868,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>5.3</v>
       </c>
@@ -875,7 +892,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -901,7 +918,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -928,7 +945,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -943,7 +960,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>1.5</v>
       </c>
@@ -967,7 +984,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1.5</v>
       </c>
@@ -991,7 +1008,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1018,19 +1035,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1075,7 @@
         <v>21319.4</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1066,14 +1083,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1084,7 +1101,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10</v>
       </c>
@@ -1096,16 +1113,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>22</v>
       </c>
@@ -1119,12 +1136,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.1</v>
       </c>
@@ -1142,7 +1159,7 @@
         <v>0.6160000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.1</v>
       </c>
@@ -1160,7 +1177,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1198,7 @@
         <v>0.47250000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1202,7 +1219,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1223,13 +1240,13 @@
         <v>0.11200000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1267,7 @@
         <v>0.31500000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1271,25 +1288,25 @@
         <v>0.38000000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.05</v>
       </c>
@@ -1315,7 +1332,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.05</v>
       </c>
@@ -1333,7 +1350,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.05</v>
       </c>
@@ -1351,7 +1368,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1389,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1410,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1415,19 +1432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1450,12 +1467,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1473,7 +1490,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1487,7 +1504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>SUM(E5:E10)</f>
         <v>68</v>
@@ -1501,6 +1518,57 @@
       <c r="H11">
         <f>E11*F11*G11</f>
         <v>5480.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <f>'стены+фундамент'!J29+'стены+фундамент'!J33</f>
+        <v>27319.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <f>'балки+стропила'!J29</f>
+        <v>3547.0500000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <f>металлочерепица!H11</f>
+        <v>5480.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D5:D10)</f>
+        <v>36347.25</v>
       </c>
     </row>
   </sheetData>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,21 +846,21 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C19" s="1">
         <v>1.8</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="4"/>
-        <v>9.5399999999999991</v>
+        <v>9.18</v>
       </c>
       <c r="E19" s="1">
         <v>0.2</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ref="F19:F20" si="5">E19*D19</f>
-        <v>1.9079999999999999</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -870,21 +870,21 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C20" s="1">
         <v>1.8</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="4"/>
-        <v>9.5399999999999991</v>
+        <v>9.18</v>
       </c>
       <c r="E20" s="1">
         <v>0.2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="5"/>
-        <v>1.9079999999999999</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -897,21 +897,21 @@
         <v>15</v>
       </c>
       <c r="B21" s="1">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C21" s="1">
         <v>2.5</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ref="D21" si="6">B21*C21</f>
-        <v>13.25</v>
+        <v>12.75</v>
       </c>
       <c r="E21" s="1">
         <v>0.2</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ref="F21" si="7">E21*D21</f>
-        <v>2.6500000000000004</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1057,7 +1057,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <f>SUM(F6:F28)</f>
-        <v>25.507400000000004</v>
+        <v>25.263399999999997</v>
       </c>
       <c r="G29" s="1">
         <f>SUM(G9:G28)</f>
@@ -1065,14 +1065,14 @@
       </c>
       <c r="H29" s="1">
         <f>F29-G29</f>
-        <v>21.319400000000002</v>
+        <v>21.075399999999995</v>
       </c>
       <c r="I29">
         <v>1000</v>
       </c>
       <c r="J29">
         <f>I29*H29</f>
-        <v>21319.4</v>
+        <v>21075.399999999994</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
   <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,14 +1230,14 @@
         <v>0.1</v>
       </c>
       <c r="D10">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.11200000000000002</v>
+        <v>0.10800000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="G29">
         <f>SUM(G5:G28)</f>
-        <v>2.7285000000000004</v>
+        <v>2.7245000000000004</v>
       </c>
       <c r="I29">
         <v>1300</v>
       </c>
       <c r="J29">
         <f>I29*G29</f>
-        <v>3547.0500000000006</v>
+        <v>3541.8500000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1436,7 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1477,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="E5">
         <f>B5*C5*D5</f>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>SUM(E5:E10)</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>1.3</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="H11">
         <f>E11*F11*G11</f>
-        <v>5480.8</v>
+        <v>5319.5999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D5">
         <f>'стены+фундамент'!J29+'стены+фундамент'!J33</f>
-        <v>27319.4</v>
+        <v>27075.399999999994</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D6">
         <f>'балки+стропила'!J29</f>
-        <v>3547.0500000000006</v>
+        <v>3541.8500000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D7">
         <f>металлочерепица!H11</f>
-        <v>5480.8</v>
+        <v>5319.5999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D11">
         <f>SUM(D5:D10)</f>
-        <v>36347.25</v>
+        <v>35936.849999999991</v>
       </c>
     </row>
   </sheetData>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15315" windowHeight="9015" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15315" windowHeight="9015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="стены+фундамент" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="металлочерепица" sheetId="3" r:id="rId3"/>
     <sheet name="общая" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>1й этаж</t>
   </si>
@@ -143,16 +143,28 @@
   </si>
   <si>
     <t>металлочерепица</t>
+  </si>
+  <si>
+    <t>либо 28шт 0.05х0.15х4.5</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>метров</t>
+  </si>
+  <si>
+    <t>реек всего</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +184,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,11 +224,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -282,7 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,7 +357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -493,19 +532,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -534,7 +573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -545,7 +584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -556,7 +595,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -571,7 +610,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -598,7 +637,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="1">
         <v>5.3</v>
       </c>
@@ -622,7 +661,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -649,7 +688,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -676,7 +715,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -703,7 +742,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="1">
         <v>1.2</v>
       </c>
@@ -727,7 +766,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -751,7 +790,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -770,7 +809,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <f t="shared" ref="G13" si="3">E13*D13</f>
+        <f t="shared" ref="G13:G15" si="3">E13*D13</f>
         <v>0.48</v>
       </c>
       <c r="H13" s="1"/>
@@ -778,49 +817,111 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
+      <c r="B14" s="4">
+        <v>7.92</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="D14" s="4">
+        <f>B14*C14</f>
+        <v>22.968</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="4">
+        <f>E14*D14</f>
+        <v>6.8903999999999996</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D16" si="4">B15*C15</f>
+        <v>4.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>1.26</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
+        <v>14.616</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="4">
+        <f>E16*D16</f>
+        <v>2.9232</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17*C17</f>
+        <v>7.7139999999999986</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="4">
+        <f>E17*D17</f>
+        <v>1.5427999999999997</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="B18" s="1">
         <v>8.1199999999999992</v>
       </c>
@@ -828,7 +929,7 @@
         <v>1.8</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:D20" si="4">B18*C18</f>
+        <f t="shared" ref="D18:D20" si="5">B18*C18</f>
         <v>14.616</v>
       </c>
       <c r="E18" s="1">
@@ -844,7 +945,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -852,14 +953,14 @@
         <v>1.8</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.18</v>
       </c>
       <c r="E19" s="1">
         <v>0.2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:F20" si="5">E19*D19</f>
+        <f t="shared" ref="F19:F20" si="6">E19*D19</f>
         <v>1.8360000000000001</v>
       </c>
       <c r="G19" s="1"/>
@@ -868,7 +969,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="B20" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -876,14 +977,14 @@
         <v>1.8</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.18</v>
       </c>
       <c r="E20" s="1">
         <v>0.2</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8360000000000001</v>
       </c>
       <c r="G20" s="1"/>
@@ -892,7 +993,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -903,14 +1004,14 @@
         <v>2.5</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ref="D21" si="6">B21*C21</f>
+        <f t="shared" ref="D21" si="7">B21*C21</f>
         <v>12.75</v>
       </c>
       <c r="E21" s="1">
         <v>0.2</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ref="F21" si="7">E21*D21</f>
+        <f t="shared" ref="F21" si="8">E21*D21</f>
         <v>2.5500000000000003</v>
       </c>
       <c r="H21" s="1"/>
@@ -918,7 +1019,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -945,7 +1046,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -960,7 +1061,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="B24" s="1">
         <v>1.5</v>
       </c>
@@ -976,7 +1077,7 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:G25" si="8">E24*D24</f>
+        <f t="shared" ref="G24:G25" si="9">E24*D24</f>
         <v>0.45</v>
       </c>
       <c r="H24" s="1"/>
@@ -984,7 +1085,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25" s="1">
         <v>1.5</v>
       </c>
@@ -1000,7 +1101,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45</v>
       </c>
       <c r="H25" s="1"/>
@@ -1008,7 +1109,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +1128,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <f t="shared" ref="G26" si="9">E26*D26</f>
+        <f t="shared" ref="G26" si="10">E26*D26</f>
         <v>0.37800000000000006</v>
       </c>
       <c r="H26" s="1"/>
@@ -1035,19 +1136,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1057,25 +1158,25 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <f>SUM(F6:F28)</f>
-        <v>25.263399999999997</v>
+        <v>36.619799999999998</v>
       </c>
       <c r="G29" s="1">
         <f>SUM(G9:G28)</f>
-        <v>4.1880000000000006</v>
+        <v>5.4480000000000004</v>
       </c>
       <c r="H29" s="1">
         <f>F29-G29</f>
-        <v>21.075399999999995</v>
+        <v>31.171799999999998</v>
       </c>
       <c r="I29">
         <v>1000</v>
       </c>
       <c r="J29">
         <f>I29*H29</f>
-        <v>21075.399999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31171.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1083,14 +1184,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1101,7 +1202,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="B34">
         <v>10</v>
       </c>
@@ -1113,16 +1214,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:M1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="E2" t="s">
         <v>22</v>
       </c>
@@ -1136,177 +1240,260 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
         <v>0.1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>0.2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="6">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <f>B5*C5*D5*E5</f>
-        <v>0.6160000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6">
+        <v>0.70400000000000018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>0.1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>0.2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <f>B6*C6*D6*E6</f>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.05</v>
       </c>
       <c r="C8" s="3">
         <v>0.15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>4.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <f t="shared" ref="G8:G16" si="0">B8*C8*D8*E8</f>
         <v>0.47250000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>0.05</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>5.2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0.27300000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>0.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0.1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>5.4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>0.10800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>0.05</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>0.05</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>4.5</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>28</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0.31500000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
+        <f>D12*E12</f>
+        <v>126</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>0.05</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>0.05</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>7.6</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>20</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>0.38000000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8">
+        <f>D13*E13</f>
+        <v>152</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>5.2500000000000012E-2</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <f>D14*E14</f>
+        <v>21</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="8">
+        <f>SUM(K12:K14)</f>
+        <v>299</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1314,7 +1501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="B22">
         <v>0.05</v>
       </c>
@@ -1332,7 +1519,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="B23">
         <v>0.05</v>
       </c>
@@ -1350,7 +1537,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="B24">
         <v>0.05</v>
       </c>
@@ -1368,7 +1555,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1389,7 +1576,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1410,20 +1597,25 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="G29">
         <f>SUM(G5:G28)</f>
-        <v>2.7245000000000004</v>
+        <v>2.9450000000000007</v>
       </c>
       <c r="I29">
         <v>1300</v>
       </c>
       <c r="J29">
         <f>I29*G29</f>
-        <v>3541.8500000000004</v>
+        <v>3828.5000000000009</v>
+      </c>
+    </row>
+    <row r="1048576" spans="12:12">
+      <c r="L1048576" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1432,19 +1624,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1467,12 +1659,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1490,7 +1682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1504,7 +1696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="E11">
         <f>SUM(E5:E10)</f>
         <v>66</v>
@@ -1526,34 +1718,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="D5">
         <f>'стены+фундамент'!J29+'стены+фундамент'!J33</f>
-        <v>27075.399999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37171.800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="D6">
         <f>'балки+стропила'!J29</f>
-        <v>3541.8500000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3828.5000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1562,13 +1754,13 @@
         <v>5319.5999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
         <f>SUM(D5:D10)</f>
-        <v>35936.849999999991</v>
+        <v>46319.9</v>
       </c>
     </row>
   </sheetData>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -109,12 +109,6 @@
     <t>(с выгоды)</t>
   </si>
   <si>
-    <t>рейки</t>
-  </si>
-  <si>
-    <t>контррейки</t>
-  </si>
-  <si>
     <t>покрытие крыши</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>реек всего</t>
+  </si>
+  <si>
+    <t>брус</t>
+  </si>
+  <si>
+    <t>обрешетка</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J33">
         <v>6000</v>
@@ -1218,11 +1218,12 @@
   <dimension ref="A2:M1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1316,7 +1317,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1377,7 +1378,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8">
         <v>0.05</v>
@@ -1389,49 +1390,49 @@
         <v>4.5</v>
       </c>
       <c r="E12" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0.31500000000000006</v>
+        <v>0.15750000000000003</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8">
         <f>D12*E12</f>
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B13" s="8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C13" s="8">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="8">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="E13" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>0.38000000000000006</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8">
         <f>D13*E13</f>
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="L13" s="8"/>
     </row>
@@ -1477,14 +1478,14 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15" s="8">
         <f>SUM(K12:K14)</f>
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1603,19 +1604,19 @@
       </c>
       <c r="G29">
         <f>SUM(G5:G28)</f>
-        <v>2.9450000000000007</v>
+        <v>3.0015000000000009</v>
       </c>
       <c r="I29">
         <v>1300</v>
       </c>
       <c r="J29">
         <f>I29*G29</f>
-        <v>3828.5000000000009</v>
+        <v>3901.9500000000012</v>
       </c>
     </row>
     <row r="1048576" spans="12:12">
       <c r="L1048576" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1644,13 +1645,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -1661,12 +1662,12 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>6.6</v>
@@ -1684,7 +1685,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1729,7 +1730,7 @@
   <sheetData>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <f>'стены+фундамент'!J29+'стены+фундамент'!J33</f>
@@ -1738,16 +1739,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <f>'балки+стропила'!J29</f>
-        <v>3828.5000000000009</v>
+        <v>3901.9500000000012</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <f>металлочерепица!H11</f>
@@ -1760,7 +1761,7 @@
       </c>
       <c r="D11">
         <f>SUM(D5:D10)</f>
-        <v>46319.9</v>
+        <v>46393.350000000006</v>
       </c>
     </row>
   </sheetData>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15315" windowHeight="9015" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15315" windowHeight="9015" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="стены+фундамент" sheetId="1" r:id="rId1"/>
     <sheet name="балки+стропила" sheetId="2" r:id="rId2"/>
     <sheet name="металлочерепица" sheetId="3" r:id="rId3"/>
     <sheet name="общая" sheetId="4" r:id="rId4"/>
+    <sheet name="факт" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>1й этаж</t>
   </si>
@@ -155,16 +156,28 @@
   </si>
   <si>
     <t>обрешетка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бетон фундамент 150 </t>
+  </si>
+  <si>
+    <t>доставка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бетон фундамент 200 </t>
+  </si>
+  <si>
+    <t>дерево</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +336,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,6 +371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -532,19 +547,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F17"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -573,7 +588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -584,7 +599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -595,7 +610,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -610,7 +625,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -637,7 +652,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5.3</v>
       </c>
@@ -661,7 +676,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -688,7 +703,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -715,7 +730,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -742,7 +757,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1.2</v>
       </c>
@@ -766,7 +781,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -790,7 +805,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -817,7 +832,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>7.92</v>
       </c>
@@ -843,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>2</v>
       </c>
@@ -867,7 +882,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -894,7 +909,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -921,7 +936,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>8.1199999999999992</v>
       </c>
@@ -945,7 +960,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -969,7 +984,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -993,7 +1008,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1034,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1061,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1076,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>1.5</v>
       </c>
@@ -1085,7 +1100,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1.5</v>
       </c>
@@ -1109,7 +1124,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1136,19 +1151,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>31171.8</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1184,14 +1199,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10</v>
       </c>
@@ -1214,20 +1229,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>22</v>
       </c>
@@ -1241,7 +1256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1267,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6">
         <v>0.1</v>
@@ -1272,7 +1287,7 @@
         <v>0.70400000000000018</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6">
         <v>0.1</v>
@@ -1292,7 +1307,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1310,7 +1325,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <f t="shared" ref="G8:G16" si="0">B8*C8*D8*E8</f>
+        <f t="shared" ref="G8:G12" si="0">B8*C8*D8*E8</f>
         <v>0.47250000000000003</v>
       </c>
       <c r="H8" s="3"/>
@@ -1322,7 +1337,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1348,7 +1363,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1370,13 +1385,13 @@
         <v>0.10800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -1406,95 +1421,89 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
-      </c>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="8">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D13" s="8">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59399999999999997</v>
+        <f>B13*C13*D13*E13</f>
+        <v>5.2500000000000012E-2</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8">
         <f>D13*E13</f>
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="8">
-        <v>14</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>5.2500000000000012E-2</v>
+        <f>B14*C14*D14*E14</f>
+        <v>0</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K14" s="8">
-        <f>D14*E14</f>
-        <v>21</v>
-      </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+        <f>SUM(K12:K13)</f>
+        <v>84</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="E15" s="8">
+        <v>30</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B15*C15*D15*E15</f>
+        <v>0.59399999999999997</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="8">
-        <f>SUM(K12:K14)</f>
-        <v>282</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <f>D15*E15</f>
+        <v>198</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.05</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.05</v>
       </c>
@@ -1538,7 +1547,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.05</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="1048576" spans="12:12">
+    <row r="1048576" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L1048576" t="s">
         <v>41</v>
       </c>
@@ -1625,19 +1634,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1660,12 +1669,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>SUM(E5:E10)</f>
         <v>66</v>
@@ -1719,16 +1728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>37171.800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1755,13 +1764,101 @@
         <v>5319.5999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
         <f>SUM(D5:D10)</f>
         <v>46393.350000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>350</v>
+      </c>
+      <c r="E5">
+        <f>C5*D5</f>
+        <v>2100</v>
+      </c>
+      <c r="F5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <f>C6*D6</f>
+        <v>1600</v>
+      </c>
+      <c r="F6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>2300</v>
+      </c>
+      <c r="F8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <f>SUM(E5:F25)</f>
+        <v>7300</v>
       </c>
     </row>
   </sheetData>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="15315" windowHeight="9015" activeTab="4"/>
@@ -13,12 +13,12 @@
     <sheet name="общая" sheetId="4" r:id="rId4"/>
     <sheet name="факт" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>1й этаж</t>
   </si>
@@ -68,9 +68,6 @@
     <t>перегородка</t>
   </si>
   <si>
-    <t>дверь на кужню</t>
-  </si>
-  <si>
     <t>цена</t>
   </si>
   <si>
@@ -168,16 +165,25 @@
   </si>
   <si>
     <t>дерево</t>
+  </si>
+  <si>
+    <t>дверь на кухню</t>
+  </si>
+  <si>
+    <t>блоки</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,10 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -336,7 +341,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -371,7 +375,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -547,19 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -582,13 +585,13 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21">
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -596,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -610,7 +613,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -625,7 +628,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -652,7 +655,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="1">
         <v>5.3</v>
       </c>
@@ -676,7 +679,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -690,12 +693,12 @@
         <f t="shared" ref="D8" si="1">B8*C8</f>
         <v>15.37</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.2</v>
+      <c r="E8" s="1">
+        <v>0.3</v>
       </c>
       <c r="F8" s="1">
         <f>E8*D8</f>
-        <v>3.0739999999999998</v>
+        <v>4.6109999999999998</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -703,7 +706,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -730,7 +733,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -757,7 +760,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11" s="1">
         <v>1.2</v>
       </c>
@@ -781,7 +784,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -805,9 +808,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>1.2</v>
@@ -819,124 +822,124 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.2</v>
+      <c r="E13" s="1">
+        <v>0.3</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <f t="shared" ref="G13:G15" si="3">E13*D13</f>
-        <v>0.48</v>
+        <f t="shared" ref="G13" si="3">E13*D13</f>
+        <v>0.72</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+    <row r="14" spans="1:21">
+      <c r="L14" s="3">
         <v>7.92</v>
       </c>
-      <c r="C14" s="4">
+      <c r="M14" s="3">
         <v>2.9</v>
       </c>
-      <c r="D14" s="4">
-        <f>B14*C14</f>
+      <c r="N14" s="3">
+        <f>L14*M14</f>
         <v>22.968</v>
       </c>
-      <c r="E14" s="4">
+      <c r="O14" s="3">
         <v>0.3</v>
       </c>
-      <c r="F14" s="4">
-        <f>E14*D14</f>
+      <c r="P14" s="3">
+        <f>O14*N14</f>
         <v>6.8903999999999996</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="L15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="M15" s="3">
         <v>2.1</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" ref="D15:D16" si="4">B15*C15</f>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15:N16" si="4">L15*M15</f>
         <v>4.2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="O15" s="3">
         <v>0.3</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4">
-        <f t="shared" si="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="3">
+        <f>O15*N15</f>
         <v>1.26</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="4">
+      <c r="L16" s="3">
         <v>8.1199999999999992</v>
       </c>
-      <c r="C16" s="4">
+      <c r="M16" s="3">
         <v>1.8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="N16" s="3">
         <f t="shared" si="4"/>
         <v>14.616</v>
       </c>
-      <c r="E16" s="4">
+      <c r="O16" s="3">
         <v>0.2</v>
       </c>
-      <c r="F16" s="4">
-        <f>E16*D16</f>
+      <c r="P16" s="3">
+        <f>O16*N16</f>
         <v>2.9232</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
+      <c r="L17" s="3">
         <v>4.0599999999999996</v>
       </c>
-      <c r="C17" s="4">
+      <c r="M17" s="3">
         <v>1.9</v>
       </c>
-      <c r="D17" s="4">
-        <f>B17*C17</f>
+      <c r="N17" s="3">
+        <f>L17*M17</f>
         <v>7.7139999999999986</v>
       </c>
-      <c r="E17" s="4">
+      <c r="O17" s="3">
         <v>0.2</v>
       </c>
-      <c r="F17" s="4">
-        <f>E17*D17</f>
+      <c r="P17" s="3">
+        <f>O17*N17</f>
         <v>1.5427999999999997</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="B18" s="1">
         <v>8.1199999999999992</v>
       </c>
@@ -948,11 +951,11 @@
         <v>14.616</v>
       </c>
       <c r="E18" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F18" s="1">
         <f>E18*D18</f>
-        <v>2.9232</v>
+        <v>4.3847999999999994</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -960,7 +963,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="B19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -972,11 +975,11 @@
         <v>9.18</v>
       </c>
       <c r="E19" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ref="F19:F20" si="6">E19*D19</f>
-        <v>1.8360000000000001</v>
+        <v>2.754</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -984,7 +987,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="B20" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -996,11 +999,11 @@
         <v>9.18</v>
       </c>
       <c r="E20" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="6"/>
-        <v>1.8360000000000001</v>
+        <v>2.754</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1008,7 +1011,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1023,18 +1026,18 @@
         <v>12.75</v>
       </c>
       <c r="E21" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ref="F21" si="8">E21*D21</f>
-        <v>2.5500000000000003</v>
+        <v>3.8249999999999997</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1064,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1079,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="B24" s="1">
         <v>1.5</v>
       </c>
@@ -1088,19 +1091,19 @@
         <v>2.25</v>
       </c>
       <c r="E24" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
         <f t="shared" ref="G24:G25" si="9">E24*D24</f>
-        <v>0.45</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="B25" s="1">
         <v>1.5</v>
       </c>
@@ -1112,21 +1115,21 @@
         <v>2.25</v>
       </c>
       <c r="E25" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
         <f t="shared" si="9"/>
-        <v>0.45</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
         <v>0.9</v>
@@ -1139,31 +1142,31 @@
         <v>1.8900000000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
         <f t="shared" ref="G26" si="10">E26*D26</f>
-        <v>0.37800000000000006</v>
+        <v>0.56700000000000006</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1173,25 +1176,25 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <f>SUM(F6:F28)</f>
-        <v>36.619799999999998</v>
+        <v>31.373000000000001</v>
       </c>
       <c r="G29" s="1">
         <f>SUM(G9:G28)</f>
-        <v>5.4480000000000004</v>
+        <v>5.0670000000000002</v>
       </c>
       <c r="H29" s="1">
         <f>F29-G29</f>
-        <v>31.171799999999998</v>
+        <v>26.306000000000001</v>
       </c>
       <c r="I29">
         <v>1000</v>
       </c>
       <c r="J29">
         <f>I29*H29</f>
-        <v>31171.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1199,25 +1202,25 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
       </c>
       <c r="J33">
         <v>6000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="B34">
         <v>10</v>
       </c>
@@ -1229,289 +1232,289 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>0.1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <f>B5*C5*D5*E5</f>
         <v>0.70400000000000018</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6">
+    <row r="6" spans="1:13">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>0.1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <f>B6*C6*D6*E6</f>
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.05</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.15</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>4.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>14</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <f t="shared" ref="G8:G12" si="0">B8*C8*D8*E8</f>
         <v>0.47250000000000003</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
         <v>0.05</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.15</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>5.2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>7</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>0.27300000000000002</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6">
         <v>0.1</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>5.4</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0.10800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="8">
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7">
         <v>0.05</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.05</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>4.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>14</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>0.15750000000000003</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7">
         <f>D12*E12</f>
         <v>63</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7">
         <v>0.05</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>0.05</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>1.5</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>14</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
         <f>B13*C13*D13*E13</f>
         <v>5.2500000000000012E-2</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
         <f>D13*E13</f>
         <v>21</v>
       </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
         <f>B14*C14*D14*E14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="7">
         <f>SUM(K12:K13)</f>
         <v>84</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="L14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.03</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>0.1</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>6.6</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>30</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
         <f>B15*C15*D15*E15</f>
         <v>0.59399999999999997</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
         <f>D15*E15</f>
         <v>198</v>
       </c>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="B22">
         <v>0.05</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="B23">
         <v>0.05</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="B24">
         <v>0.05</v>
       </c>
@@ -1565,9 +1568,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0.05</v>
@@ -1586,9 +1589,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0.05</v>
@@ -1607,9 +1610,9 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29">
         <f>SUM(G5:G28)</f>
@@ -1623,9 +1626,9 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="1048576" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="12:12">
       <c r="L1048576" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1634,19 +1637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1654,29 +1657,29 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>6.6</v>
@@ -1692,9 +1695,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1706,7 +1709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="E11">
         <f>SUM(E5:E10)</f>
         <v>66</v>
@@ -1728,49 +1731,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <f>'стены+фундамент'!J29+'стены+фундамент'!J33</f>
-        <v>37171.800000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <f>'балки+стропила'!J29</f>
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <f>металлочерепица!H11</f>
         <v>5319.5999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <f>SUM(D5:D10)</f>
-        <v>46393.350000000006</v>
+        <v>41527.550000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1779,35 +1782,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1823,14 +1826,14 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>400</v>
       </c>
       <c r="E6">
@@ -1841,9 +1844,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>2300</v>
@@ -1852,13 +1855,37 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>588</v>
+      </c>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26">
         <f>SUM(E5:F25)</f>
-        <v>7300</v>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28">
+        <f>G26/8.15</f>
+        <v>2699.3865030674847</v>
       </c>
     </row>
   </sheetData>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,14 +738,14 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.1049999999999995</v>
       </c>
       <c r="E10" s="1">
         <v>0.3</v>
@@ -753,7 +753,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f t="shared" ref="G10:G12" si="2">E10*D10</f>
-        <v>1.08</v>
+        <v>0.93149999999999977</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1180,18 +1180,18 @@
       </c>
       <c r="G29" s="1">
         <f>SUM(G9:G28)</f>
-        <v>5.0670000000000002</v>
+        <v>4.9184999999999999</v>
       </c>
       <c r="H29" s="1">
         <f>F29-G29</f>
-        <v>26.306000000000001</v>
+        <v>26.454500000000003</v>
       </c>
       <c r="I29">
         <v>1000</v>
       </c>
       <c r="J29">
         <f>I29*H29</f>
-        <v>26306</v>
+        <v>26454.500000000004</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D5">
         <f>'стены+фундамент'!J29+'стены+фундамент'!J33</f>
-        <v>32306</v>
+        <v>32454.500000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="D11">
         <f>SUM(D5:D10)</f>
-        <v>41527.550000000003</v>
+        <v>41676.050000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1816,14 +1816,14 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="E5">
         <f>C5*D5</f>
-        <v>2100</v>
+        <v>2760</v>
       </c>
       <c r="F5">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1834,14 +1834,14 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E6">
         <f>C6*D6</f>
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="F6">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1849,7 +1849,7 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="F8">
         <v>400</v>
@@ -1863,11 +1863,11 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E10">
         <f>C10*D10</f>
-        <v>14700</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="G26">
         <f>SUM(E5:F25)</f>
-        <v>22000</v>
+        <v>22610</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="G28">
         <f>G26/8.15</f>
-        <v>2699.3865030674847</v>
+        <v>2774.2331288343557</v>
       </c>
     </row>
   </sheetData>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15315" windowHeight="9015" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15315" windowHeight="8595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="стены+фундамент" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="общая" sheetId="4" r:id="rId4"/>
     <sheet name="факт" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>1й этаж</t>
   </si>
@@ -174,16 +174,52 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>кладка 1й этаж</t>
+  </si>
+  <si>
+    <t>кладка 2й этаж</t>
+  </si>
+  <si>
+    <t>крыша аванс</t>
+  </si>
+  <si>
+    <t>работы</t>
+  </si>
+  <si>
+    <t>клей</t>
+  </si>
+  <si>
+    <t>цемент</t>
+  </si>
+  <si>
+    <t>грн</t>
+  </si>
+  <si>
+    <t>еще рейки</t>
+  </si>
+  <si>
+    <t>ОСБ</t>
+  </si>
+  <si>
+    <t>вата мягкая</t>
+  </si>
+  <si>
+    <t>вата твердая</t>
+  </si>
+  <si>
+    <t>мауэрлаты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +266,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -243,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -252,6 +294,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -341,6 +385,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,6 +420,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -550,19 +596,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -591,7 +637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -602,7 +648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -613,7 +659,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -628,7 +674,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -655,7 +701,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5.3</v>
       </c>
@@ -679,7 +725,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -706,7 +752,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -733,7 +779,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -760,7 +806,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1.2</v>
       </c>
@@ -784,7 +830,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -808,7 +854,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -835,7 +881,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L14" s="3">
         <v>7.92</v>
       </c>
@@ -861,7 +907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L15" s="3">
         <v>2</v>
       </c>
@@ -885,7 +931,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -912,7 +958,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -939,7 +985,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>8.1199999999999992</v>
       </c>
@@ -963,7 +1009,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -987,7 +1033,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1011,7 +1057,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1037,7 +1083,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1110,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1079,7 +1125,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>1.5</v>
       </c>
@@ -1103,7 +1149,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1.5</v>
       </c>
@@ -1127,7 +1173,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1154,19 +1200,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1240,7 @@
         <v>26454.500000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1202,14 +1248,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1220,7 +1266,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10</v>
       </c>
@@ -1232,20 +1278,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1270,7 +1316,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>0.1</v>
@@ -1290,7 +1336,7 @@
         <v>0.70400000000000018</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>0.1</v>
@@ -1310,7 +1356,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1340,7 +1386,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1412,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1388,13 +1434,13 @@
         <v>0.10800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1470,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7">
         <v>0.05</v>
@@ -1452,7 +1498,7 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1476,7 +1522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1506,7 +1552,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +1560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.05</v>
       </c>
@@ -1532,7 +1578,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.05</v>
       </c>
@@ -1550,7 +1596,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.05</v>
       </c>
@@ -1568,7 +1614,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1589,7 +1635,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1610,7 +1656,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1626,7 +1672,7 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="1048576" spans="12:12">
+    <row r="1048576" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L1048576" t="s">
         <v>40</v>
       </c>
@@ -1637,19 +1683,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1672,12 +1718,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1695,7 +1741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1709,7 +1755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>SUM(E5:E10)</f>
         <v>66</v>
@@ -1731,16 +1777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1749,7 +1795,7 @@
         <v>32454.500000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1758,7 +1804,7 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1767,7 +1813,7 @@
         <v>5319.5999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1782,19 +1828,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -1807,8 +1866,34 @@
       <c r="F3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1825,8 +1910,17 @@
       <c r="F5">
         <v>350</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -1843,50 +1937,642 @@
       <c r="F6">
         <v>350</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>48</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F8">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>315</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>570</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>590</v>
       </c>
-      <c r="E10">
-        <f>C10*D10</f>
+      <c r="E11">
+        <f>C11*D11</f>
         <v>14750</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>31.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E14" si="0">C12*D12</f>
+        <v>1417.5</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>9000</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>6735</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>110</v>
+      </c>
+      <c r="E18">
+        <f>C18*D18</f>
+        <v>1100</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="G26">
-        <f>SUM(E5:F25)</f>
-        <v>22610</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28">
-        <f>G26/8.15</f>
-        <v>2774.2331288343557</v>
-      </c>
+      <c r="G27" s="2">
+        <f>SUM(E5:F26)</f>
+        <v>42837.5</v>
+      </c>
+      <c r="I27" s="8">
+        <f>G27/8.15</f>
+        <v>5256.1349693251532</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>3400</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32">
+        <v>3000</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35">
+        <v>4000</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2">
+        <f>SUM(E31:F42)</f>
+        <v>10400</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" ref="I43:I47" si="1">G43/8.15</f>
+        <v>1276.0736196319017</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="2">
+        <f>SUM(G27:G43)</f>
+        <v>53237.5</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="1"/>
+        <v>6532.2085889570553</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+    </row>
+    <row r="49" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="15315" windowHeight="8595" activeTab="4"/>
@@ -13,12 +13,12 @@
     <sheet name="общая" sheetId="4" r:id="rId4"/>
     <sheet name="факт" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>1й этаж</t>
   </si>
@@ -210,16 +210,22 @@
   </si>
   <si>
     <t>мауэрлаты</t>
+  </si>
+  <si>
+    <t>крыша остаток</t>
+  </si>
+  <si>
+    <t>Петра</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,7 +391,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -420,7 +425,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -596,19 +600,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -637,7 +641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -648,7 +652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -659,7 +663,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -674,7 +678,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -701,7 +705,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="1">
         <v>5.3</v>
       </c>
@@ -725,7 +729,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -752,7 +756,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -779,7 +783,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -806,7 +810,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="B11" s="1">
         <v>1.2</v>
       </c>
@@ -830,7 +834,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -854,7 +858,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -881,7 +885,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="L14" s="3">
         <v>7.92</v>
       </c>
@@ -907,7 +911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="L15" s="3">
         <v>2</v>
       </c>
@@ -931,7 +935,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -958,7 +962,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -985,7 +989,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="B18" s="1">
         <v>8.1199999999999992</v>
       </c>
@@ -1009,7 +1013,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="B19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1033,7 +1037,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="B20" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1057,7 +1061,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1087,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1114,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1129,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="B24" s="1">
         <v>1.5</v>
       </c>
@@ -1149,7 +1153,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="B25" s="1">
         <v>1.5</v>
       </c>
@@ -1173,7 +1177,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1200,19 +1204,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>26454.500000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1248,14 +1252,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="B34">
         <v>10</v>
       </c>
@@ -1278,20 +1282,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="E2" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1316,7 +1320,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>0.1</v>
@@ -1336,7 +1340,7 @@
         <v>0.70400000000000018</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>0.1</v>
@@ -1356,7 +1360,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1390,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1412,7 +1416,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1434,13 +1438,13 @@
         <v>0.10800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -1470,7 +1474,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="7"/>
       <c r="B13" s="7">
         <v>0.05</v>
@@ -1498,7 +1502,7 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1522,7 +1526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1552,7 +1556,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="B22">
         <v>0.05</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="B23">
         <v>0.05</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="B24">
         <v>0.05</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1660,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="1048576" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="12:12">
       <c r="L1048576" t="s">
         <v>40</v>
       </c>
@@ -1683,19 +1687,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1718,12 +1722,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="E11">
         <f>SUM(E5:E10)</f>
         <v>66</v>
@@ -1777,16 +1781,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>32454.500000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>5319.5999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1828,21 +1832,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20">
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1853,7 +1857,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1886,7 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20">
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1893,7 +1897,7 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1909,6 +1913,13 @@
       </c>
       <c r="F5">
         <v>350</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5">
+        <f>SUM(E5:F6)+E11+E12+E18+E19+E20</f>
+        <v>30527.5</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -1920,7 +1931,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -1947,7 +1958,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20">
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1958,7 +1969,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20">
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -1978,7 +1989,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -1995,7 +2006,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20">
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -2012,7 +2023,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -2036,7 +2047,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -2060,7 +2071,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -2084,7 +2095,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20">
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2099,7 +2110,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2127,7 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -2133,7 +2144,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -2144,7 +2155,7 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -2168,9 +2179,19 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="B19" t="s">
         <v>61</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>234</v>
+      </c>
+      <c r="E19">
+        <f>C19*D19</f>
+        <v>2340</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2182,9 +2203,19 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="B20" t="s">
         <v>62</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2">
+        <v>130</v>
+      </c>
+      <c r="E20">
+        <f>C20*D20</f>
+        <v>5460</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -2196,7 +2227,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -2207,7 +2238,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -2218,7 +2249,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2229,7 +2260,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -2240,7 +2271,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2251,7 +2282,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2262,17 +2293,17 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="2">
         <f>SUM(E5:F26)</f>
-        <v>42837.5</v>
+        <v>50637.5</v>
       </c>
       <c r="I27" s="8">
         <f>G27/8.15</f>
-        <v>5256.1349693251532</v>
+        <v>6213.1901840490791</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -2284,7 +2315,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -2295,7 +2326,7 @@
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -2306,7 +2337,7 @@
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2320,7 +2351,7 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -2337,7 +2368,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="B32" t="s">
         <v>53</v>
       </c>
@@ -2354,7 +2385,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -2365,7 +2396,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -2376,7 +2407,7 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="B35" t="s">
         <v>54</v>
       </c>
@@ -2393,7 +2424,13 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>3100</v>
+      </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2404,7 +2441,7 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2415,7 +2452,7 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2426,7 +2463,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2437,7 +2474,7 @@
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -2448,7 +2485,7 @@
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -2459,7 +2496,7 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -2470,17 +2507,17 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="2">
         <f>SUM(E31:F42)</f>
-        <v>10400</v>
+        <v>13500</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" ref="I43:I47" si="1">G43/8.15</f>
-        <v>1276.0736196319017</v>
+        <v>1656.4417177914111</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -2492,7 +2529,7 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -2503,7 +2540,7 @@
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -2514,7 +2551,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -2525,7 +2562,7 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="8" t="s">
         <v>14</v>
       </c>
@@ -2536,11 +2573,11 @@
       <c r="F47" s="8"/>
       <c r="G47" s="2">
         <f>SUM(G27:G43)</f>
-        <v>53237.5</v>
+        <v>64137.5</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="1"/>
-        <v>6532.2085889570553</v>
+        <v>7869.6319018404902</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -2552,7 +2589,7 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -2563,7 +2600,7 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
     </row>
-    <row r="49" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:20">
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>

--- a/материалы.xlsx
+++ b/материалы.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15315" windowHeight="8595" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15315" windowHeight="8595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="стены+фундамент" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="металлочерепица" sheetId="3" r:id="rId3"/>
     <sheet name="общая" sheetId="4" r:id="rId4"/>
     <sheet name="факт" sheetId="5" r:id="rId5"/>
+    <sheet name="Петра" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>1й этаж</t>
   </si>
@@ -221,11 +222,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +392,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -425,6 +427,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -600,19 +603,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -641,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -652,7 +655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -663,7 +666,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -678,7 +681,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -705,7 +708,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5.3</v>
       </c>
@@ -729,7 +732,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -756,7 +759,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -783,7 +786,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -810,7 +813,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1.2</v>
       </c>
@@ -834,7 +837,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -858,7 +861,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -885,7 +888,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L14" s="3">
         <v>7.92</v>
       </c>
@@ -911,7 +914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L15" s="3">
         <v>2</v>
       </c>
@@ -935,7 +938,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -962,7 +965,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -989,7 +992,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>8.1199999999999992</v>
       </c>
@@ -1013,7 +1016,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1037,7 +1040,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1061,7 +1064,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1090,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1132,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>1.5</v>
       </c>
@@ -1153,7 +1156,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1.5</v>
       </c>
@@ -1177,7 +1180,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1204,19 +1207,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>26454.500000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1252,14 +1255,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10</v>
       </c>
@@ -1282,20 +1285,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>21</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1323,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>0.1</v>
@@ -1340,7 +1343,7 @@
         <v>0.70400000000000018</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>0.1</v>
@@ -1360,7 +1363,7 @@
         <v>0.64000000000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1390,7 +1393,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1416,7 +1419,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1438,13 +1441,13 @@
         <v>0.10800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -1474,7 +1477,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7">
         <v>0.05</v>
@@ -1502,7 +1505,7 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1526,7 +1529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1556,7 +1559,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.05</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.05</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.05</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="1048576" spans="12:12">
+    <row r="1048576" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L1048576" t="s">
         <v>40</v>
       </c>
@@ -1687,19 +1690,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1722,12 +1725,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>SUM(E5:E10)</f>
         <v>66</v>
@@ -1781,16 +1784,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>32454.500000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>3901.9500000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>5319.5999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1832,21 +1835,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K43" sqref="A1:K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1857,7 +1860,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -1886,7 +1889,7 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1897,7 +1900,7 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -1958,7 +1961,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1969,7 +1972,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -1989,7 +1992,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -2006,7 +2009,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -2023,7 +2026,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -2047,7 +2050,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -2071,7 +2074,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -2095,7 +2098,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2110,7 +2113,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -2127,7 +2130,7 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -2144,7 +2147,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -2155,7 +2158,7 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -2179,7 +2182,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -2203,7 +2206,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>62</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -2238,7 +2241,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -2249,7 +2252,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2260,7 +2263,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -2271,7 +2274,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2282,7 +2285,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2293,7 +2296,7 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2315,7 +2318,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -2326,7 +2329,7 @@
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -2337,7 +2340,7 @@
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2351,7 +2354,7 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -2368,7 +2371,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>53</v>
       </c>
@@ -2385,7 +2388,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -2396,7 +2399,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -2407,7 +2410,7 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>54</v>
       </c>
@@ -2424,7 +2427,7 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -2441,7 +2444,7 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2452,7 +2455,7 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2463,7 +2466,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2474,7 +2477,7 @@
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -2485,7 +2488,7 @@
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -2496,7 +2499,7 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -2507,7 +2510,7 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2529,7 +2532,7 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -2540,7 +2543,7 @@
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -2551,7 +2554,7 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -2562,7 +2565,7 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>14</v>
       </c>
@@ -2589,7 +2592,7 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -2600,7 +2603,7 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
     </row>
-    <row r="49" spans="12:20">
+    <row r="49" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -2614,4 +2617,401 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>460</v>
+      </c>
+      <c r="E5">
+        <f>C5*D5</f>
+        <v>2760</v>
+      </c>
+      <c r="F5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <f>C6*D6</f>
+        <v>2000</v>
+      </c>
+      <c r="F6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>590</v>
+      </c>
+      <c r="E8">
+        <f>C8*D8</f>
+        <v>14750</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>31.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="0">C9*D9</f>
+        <v>1417.5</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>1100</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>234</v>
+      </c>
+      <c r="E11">
+        <f>C11*D11</f>
+        <v>2340</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
+        <v>130</v>
+      </c>
+      <c r="E12">
+        <f>C12*D12</f>
+        <v>5460</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <f>SUM(E5:F6)+E8+E9+E10+E11+E12</f>
+        <v>30527.5</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>